--- a/biology/Botanique/Cochlearia_officinalis/Cochlearia_officinalis.xlsx
+++ b/biology/Botanique/Cochlearia_officinalis/Cochlearia_officinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochlearia officinalis
 La cochléaire officinale (Cochlearia officinalis) est une espèce de plantes à fleurs de la famille des Brassicacées.
@@ -512,9 +524,11 @@
           <t>Noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Autres noms communs : cranson officinal, herbe aux cuillères ou herbe aux cuillers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Autres noms communs : cranson officinal, herbe aux cuillères ou herbe aux cuillers.
 Voir aussi
 Liste de plantes appelées herbes</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace ou bisannuelle.
 Les tiges dressées mesurent de 15 à 30 cm de haut. Les feuilles de la base, longuement pétiolées, sont vert foncé, épaisses et cordées, tandis que les feuilles de la tige sont plus petites et embrassantes. Les fleurs hermaphrodites, d'environ 1 cm de diamètre, sont réunies en grappes et comportent quatre pétales blancs et quatre sépales verts (ces derniers deux fois plus courts que les pétales). Le fruit est une silicule arrondie d'environ 4 à 6 mm de diamètre.
@@ -576,9 +592,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme les autres espèces du genre Cochlearia, les feuilles de la cochléaire officinale sont riches en vitamine C[2]. Les marins avaient l'habitude d'en manger pour prévenir le scorbut, d'où son autre nom d' « herbe au scorbut ». Elle est employée comme antiscorbutique sous forme de suc de plante fraîche[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comme les autres espèces du genre Cochlearia, les feuilles de la cochléaire officinale sont riches en vitamine C. Les marins avaient l'habitude d'en manger pour prévenir le scorbut, d'où son autre nom d' « herbe au scorbut ». Elle est employée comme antiscorbutique sous forme de suc de plante fraîche.
 Elle a un goût âcre et piquant qui rappelle le raifort et elle est parfois ajoutée en petite quantité aux salades[réf. souhaitée].
 Les feuilles fraîches écrasées sont utilisées en cataplasme pour guérir les ulcères[réf. nécessaire].
 Voir aussi
@@ -611,7 +629,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cochléaires sont des plantes halophytes, adaptées aux milieux salés. On les retrouvait autrefois surtout au bord de la mer, mais elles colonisent de plus en plus le bord des routes où l'on répand du sel de déglaçage en hiver.
 </t>
@@ -642,7 +662,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Europe.
 Voir aussi
@@ -675,10 +697,12 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée dans le Nord-Pas-de-Calais (sur liste rouge).
-Elle ne figure pas sur la liste rouge des plantes de Suisse. C'est une néophyte arrivée en Suisse après 1500[3].
+Elle ne figure pas sur la liste rouge des plantes de Suisse. C'est une néophyte arrivée en Suisse après 1500.
 </t>
         </is>
       </c>
@@ -707,7 +731,9 @@
           <t>Détails</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue générale de la plante.
